--- a/Code/Results/Cases/Case_2_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008133703599654</v>
+        <v>1.030976068851771</v>
       </c>
       <c r="D2">
-        <v>1.02395683840828</v>
+        <v>1.034376972943943</v>
       </c>
       <c r="E2">
-        <v>1.009873049732029</v>
+        <v>1.0511234155851</v>
       </c>
       <c r="F2">
-        <v>1.014466703043768</v>
+        <v>1.056242480241024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047659041503115</v>
+        <v>1.036280307663609</v>
       </c>
       <c r="J2">
-        <v>1.030073829088354</v>
+        <v>1.03611434355409</v>
       </c>
       <c r="K2">
-        <v>1.035092208434352</v>
+        <v>1.037176622660992</v>
       </c>
       <c r="L2">
-        <v>1.021196529791218</v>
+        <v>1.053875790400496</v>
       </c>
       <c r="M2">
-        <v>1.025728106713033</v>
+        <v>1.058980728218371</v>
       </c>
       <c r="N2">
-        <v>1.031536652076784</v>
+        <v>1.037585744765914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012195569355213</v>
+        <v>1.031807927830352</v>
       </c>
       <c r="D3">
-        <v>1.026863546782125</v>
+        <v>1.034984485751495</v>
       </c>
       <c r="E3">
-        <v>1.015246759686989</v>
+        <v>1.052342410517915</v>
       </c>
       <c r="F3">
-        <v>1.020123146859886</v>
+        <v>1.057521963342256</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048938723019635</v>
+        <v>1.036474787651092</v>
       </c>
       <c r="J3">
-        <v>1.032359203275735</v>
+        <v>1.036588482674507</v>
       </c>
       <c r="K3">
-        <v>1.037163865045537</v>
+        <v>1.03759384806658</v>
       </c>
       <c r="L3">
-        <v>1.025688202521908</v>
+        <v>1.054906323094512</v>
       </c>
       <c r="M3">
-        <v>1.030504863306203</v>
+        <v>1.060072625578378</v>
       </c>
       <c r="N3">
-        <v>1.033825271757643</v>
+        <v>1.038060557218266</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014768113157568</v>
+        <v>1.032346186959689</v>
       </c>
       <c r="D4">
-        <v>1.02870607057349</v>
+        <v>1.035377485179999</v>
       </c>
       <c r="E4">
-        <v>1.018654003855838</v>
+        <v>1.053132044903663</v>
       </c>
       <c r="F4">
-        <v>1.023708787549594</v>
+        <v>1.058350709269872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049737493966775</v>
+        <v>1.036599200174632</v>
       </c>
       <c r="J4">
-        <v>1.033801447396588</v>
+        <v>1.036894617177478</v>
       </c>
       <c r="K4">
-        <v>1.038469956585429</v>
+        <v>1.037863025174119</v>
       </c>
       <c r="L4">
-        <v>1.02853238619696</v>
+        <v>1.055573442731532</v>
       </c>
       <c r="M4">
-        <v>1.033529247588079</v>
+        <v>1.060779435026419</v>
       </c>
       <c r="N4">
-        <v>1.035269564030574</v>
+        <v>1.038367126467345</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015836706980675</v>
+        <v>1.032572467857674</v>
       </c>
       <c r="D5">
-        <v>1.029471763676429</v>
+        <v>1.035542676419019</v>
       </c>
       <c r="E5">
-        <v>1.020070389201523</v>
+        <v>1.053464214704023</v>
       </c>
       <c r="F5">
-        <v>1.025199120978416</v>
+        <v>1.058699314770368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050066445533667</v>
+        <v>1.036651160531115</v>
       </c>
       <c r="J5">
-        <v>1.034399269176828</v>
+        <v>1.037023156099398</v>
       </c>
       <c r="K5">
-        <v>1.03901102152649</v>
+        <v>1.037975995906458</v>
       </c>
       <c r="L5">
-        <v>1.029713786930391</v>
+        <v>1.055853971423884</v>
       </c>
       <c r="M5">
-        <v>1.034785416183476</v>
+        <v>1.06107664512071</v>
       </c>
       <c r="N5">
-        <v>1.035868234786314</v>
+        <v>1.038495847929277</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016015384408732</v>
+        <v>1.032610461196336</v>
       </c>
       <c r="D6">
-        <v>1.029599812324535</v>
+        <v>1.03557041120857</v>
       </c>
       <c r="E6">
-        <v>1.020307287161951</v>
+        <v>1.053519999668574</v>
       </c>
       <c r="F6">
-        <v>1.025448374699561</v>
+        <v>1.058757858962843</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050121280517035</v>
+        <v>1.036659864793208</v>
       </c>
       <c r="J6">
-        <v>1.034499154844768</v>
+        <v>1.037044728943731</v>
       </c>
       <c r="K6">
-        <v>1.03910140487925</v>
+        <v>1.037994952945477</v>
       </c>
       <c r="L6">
-        <v>1.029911328023118</v>
+        <v>1.055901077645158</v>
       </c>
       <c r="M6">
-        <v>1.034995454097801</v>
+        <v>1.061126551974775</v>
       </c>
       <c r="N6">
-        <v>1.035968262303359</v>
+        <v>1.038517451409524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014782441890583</v>
+        <v>1.032349210550139</v>
       </c>
       <c r="D7">
-        <v>1.028716336442953</v>
+        <v>1.035379692576136</v>
       </c>
       <c r="E7">
-        <v>1.018672991696731</v>
+        <v>1.053136482556346</v>
       </c>
       <c r="F7">
-        <v>1.023728767562464</v>
+        <v>1.05835536656388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049741916156357</v>
+        <v>1.036599895818607</v>
       </c>
       <c r="J7">
-        <v>1.033809468586524</v>
+        <v>1.036896335350596</v>
       </c>
       <c r="K7">
-        <v>1.038477217533283</v>
+        <v>1.037864535447416</v>
       </c>
       <c r="L7">
-        <v>1.028548227523037</v>
+        <v>1.055577190887415</v>
       </c>
       <c r="M7">
-        <v>1.033546091807271</v>
+        <v>1.060783406096582</v>
       </c>
       <c r="N7">
-        <v>1.03527759661152</v>
+        <v>1.038368847080466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009518249409867</v>
+        <v>1.031257200789263</v>
       </c>
       <c r="D8">
-        <v>1.024947272256935</v>
+        <v>1.034582305073859</v>
       </c>
       <c r="E8">
-        <v>1.011704038356903</v>
+        <v>1.051535202426765</v>
       </c>
       <c r="F8">
-        <v>1.0163942099224</v>
+        <v>1.056674715208688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048097672281092</v>
+        <v>1.036346328643361</v>
       </c>
       <c r="J8">
-        <v>1.030853904746736</v>
+        <v>1.036274718364392</v>
       </c>
       <c r="K8">
-        <v>1.03579959624769</v>
+        <v>1.037317790171353</v>
       </c>
       <c r="L8">
-        <v>1.022727770965963</v>
+        <v>1.0542240028746</v>
       </c>
       <c r="M8">
-        <v>1.027356597553418</v>
+        <v>1.059349682694803</v>
       </c>
       <c r="N8">
-        <v>1.032317835532072</v>
+        <v>1.03774634732684</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9997938754039273</v>
+        <v>1.029332914146692</v>
       </c>
       <c r="D9">
-        <v>1.017999527808354</v>
+        <v>1.033176482754423</v>
       </c>
       <c r="E9">
-        <v>0.9988541112319447</v>
+        <v>1.048720114238958</v>
       </c>
       <c r="F9">
-        <v>1.002863274652447</v>
+        <v>1.053719547881194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044968716233935</v>
+        <v>1.035888590563603</v>
       </c>
       <c r="J9">
-        <v>1.025353914562154</v>
+        <v>1.035174288829753</v>
       </c>
       <c r="K9">
-        <v>1.030807172556068</v>
+        <v>1.036348298802715</v>
       </c>
       <c r="L9">
-        <v>1.0119658070804</v>
+        <v>1.051841748162252</v>
       </c>
       <c r="M9">
-        <v>1.015910067410642</v>
+        <v>1.056825385407449</v>
       </c>
       <c r="N9">
-        <v>1.02681003473057</v>
+        <v>1.036644355056041</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.992978008034741</v>
+        <v>1.028050098020781</v>
       </c>
       <c r="D10">
-        <v>1.013142824534807</v>
+        <v>1.032238857854666</v>
       </c>
       <c r="E10">
-        <v>0.9898527012132442</v>
+        <v>1.046847751065781</v>
       </c>
       <c r="F10">
-        <v>0.9933802612354511</v>
+        <v>1.051753652873573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042715914444332</v>
+        <v>1.035576121840603</v>
       </c>
       <c r="J10">
-        <v>1.021473024007412</v>
+        <v>1.034437310868449</v>
       </c>
       <c r="K10">
-        <v>1.027278767750658</v>
+        <v>1.035697948590033</v>
       </c>
       <c r="L10">
-        <v>1.004407617548915</v>
+        <v>1.050255034417607</v>
       </c>
       <c r="M10">
-        <v>1.007870074653955</v>
+        <v>1.055143893895154</v>
       </c>
       <c r="N10">
-        <v>1.022923632866095</v>
+        <v>1.0359063305015</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9899400026776224</v>
+        <v>1.027494646306712</v>
       </c>
       <c r="D11">
-        <v>1.01098186246149</v>
+        <v>1.031832774544587</v>
       </c>
       <c r="E11">
-        <v>0.9858391188601753</v>
+        <v>1.046038018573909</v>
       </c>
       <c r="F11">
-        <v>0.9891508840150439</v>
+        <v>1.050903385451417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041698139958283</v>
+        <v>1.035439092166161</v>
       </c>
       <c r="J11">
-        <v>1.019737361649012</v>
+        <v>1.034117403765293</v>
       </c>
       <c r="K11">
-        <v>1.025699606602849</v>
+        <v>1.035415395759557</v>
       </c>
       <c r="L11">
-        <v>1.001033122671721</v>
+        <v>1.049568304112455</v>
       </c>
       <c r="M11">
-        <v>1.004280340598395</v>
+        <v>1.054416104944518</v>
       </c>
       <c r="N11">
-        <v>1.021185505668064</v>
+        <v>1.035585969093564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9887978176166595</v>
+        <v>1.027288330134949</v>
       </c>
       <c r="D12">
-        <v>1.010170048134148</v>
+        <v>1.031681925520368</v>
       </c>
       <c r="E12">
-        <v>0.9843296899705358</v>
+        <v>1.045737398856311</v>
       </c>
       <c r="F12">
-        <v>0.9875601426497748</v>
+        <v>1.050587703981445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041313486813055</v>
+        <v>1.035387934020217</v>
       </c>
       <c r="J12">
-        <v>1.019083958739921</v>
+        <v>1.033998457896956</v>
       </c>
       <c r="K12">
-        <v>1.025104965798181</v>
+        <v>1.035310301569679</v>
       </c>
       <c r="L12">
-        <v>0.9997633948611129</v>
+        <v>1.049313270021594</v>
       </c>
       <c r="M12">
-        <v>1.002929615427404</v>
+        <v>1.054145817011622</v>
       </c>
       <c r="N12">
-        <v>1.020531174851895</v>
+        <v>1.03546685430845</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9890434536934402</v>
+        <v>1.027332585489154</v>
       </c>
       <c r="D13">
-        <v>1.010344605707749</v>
+        <v>1.031714283653145</v>
       </c>
       <c r="E13">
-        <v>0.9846543297642153</v>
+        <v>1.045801875993545</v>
       </c>
       <c r="F13">
-        <v>0.9879022777122287</v>
+        <v>1.050655412154559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041396299423119</v>
+        <v>1.035398919338783</v>
       </c>
       <c r="J13">
-        <v>1.019224516455262</v>
+        <v>1.034023977524063</v>
       </c>
       <c r="K13">
-        <v>1.025232889481162</v>
+        <v>1.035332851020416</v>
       </c>
       <c r="L13">
-        <v>1.00003650998514</v>
+        <v>1.049367973538877</v>
       </c>
       <c r="M13">
-        <v>1.003220153096782</v>
+        <v>1.054203792657059</v>
       </c>
       <c r="N13">
-        <v>1.020671932175315</v>
+        <v>1.035492410176355</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9898458737792636</v>
+        <v>1.027477592074523</v>
       </c>
       <c r="D14">
-        <v>1.01091494659807</v>
+        <v>1.031820305546659</v>
       </c>
       <c r="E14">
-        <v>0.9857147357903878</v>
+        <v>1.046013166181335</v>
       </c>
       <c r="F14">
-        <v>0.9890198036291374</v>
+        <v>1.050877288157359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041666480700618</v>
+        <v>1.035434868703125</v>
       </c>
       <c r="J14">
-        <v>1.019683531105254</v>
+        <v>1.034107574068529</v>
       </c>
       <c r="K14">
-        <v>1.025650620193318</v>
+        <v>1.035406711522892</v>
       </c>
       <c r="L14">
-        <v>1.000928504988954</v>
+        <v>1.049547221939283</v>
       </c>
       <c r="M14">
-        <v>1.004169049354003</v>
+        <v>1.054393761941459</v>
       </c>
       <c r="N14">
-        <v>1.021131598678759</v>
+        <v>1.035576125437503</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903384291746778</v>
+        <v>1.027566935885333</v>
       </c>
       <c r="D15">
-        <v>1.011265128457489</v>
+        <v>1.031885627634315</v>
       </c>
       <c r="E15">
-        <v>0.986365584185381</v>
+        <v>1.046143369009643</v>
       </c>
       <c r="F15">
-        <v>0.9897056901290232</v>
+        <v>1.051014012556402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041832065040937</v>
+        <v>1.035456983957894</v>
       </c>
       <c r="J15">
-        <v>1.019965179610183</v>
+        <v>1.034159065026015</v>
       </c>
       <c r="K15">
-        <v>1.02590691738538</v>
+        <v>1.035452200690698</v>
       </c>
       <c r="L15">
-        <v>1.001475902513265</v>
+        <v>1.04965766914023</v>
       </c>
       <c r="M15">
-        <v>1.004751365066543</v>
+        <v>1.054510814259223</v>
       </c>
       <c r="N15">
-        <v>1.021413647156871</v>
+        <v>1.035627689518054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9931777445259485</v>
+        <v>1.028086961938688</v>
       </c>
       <c r="D16">
-        <v>1.013284983253894</v>
+        <v>1.032265806571098</v>
       </c>
       <c r="E16">
-        <v>0.9901165278820203</v>
+        <v>1.046901511584917</v>
       </c>
       <c r="F16">
-        <v>0.9936582510579687</v>
+        <v>1.051810102823513</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042782548578094</v>
+        <v>1.035585179669636</v>
       </c>
       <c r="J16">
-        <v>1.021587017016078</v>
+        <v>1.034458525446496</v>
       </c>
       <c r="K16">
-        <v>1.027382459955832</v>
+        <v>1.035716680806816</v>
       </c>
       <c r="L16">
-        <v>1.004629344145957</v>
+        <v>1.050300617251513</v>
       </c>
       <c r="M16">
-        <v>1.008105942069601</v>
+        <v>1.05519220125564</v>
       </c>
       <c r="N16">
-        <v>1.02303778775791</v>
+        <v>1.035927575206681</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9949350772421123</v>
+        <v>1.028413165500138</v>
       </c>
       <c r="D17">
-        <v>1.014536171074748</v>
+        <v>1.032504260756226</v>
       </c>
       <c r="E17">
-        <v>0.9924375523877289</v>
+        <v>1.047377344766059</v>
       </c>
       <c r="F17">
-        <v>0.9961037565967331</v>
+        <v>1.052309730202687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043367265865301</v>
+        <v>1.035665130986969</v>
       </c>
       <c r="J17">
-        <v>1.022589294082911</v>
+        <v>1.034646157822393</v>
       </c>
       <c r="K17">
-        <v>1.028294040172555</v>
+        <v>1.035882329231474</v>
       </c>
       <c r="L17">
-        <v>1.006579490847249</v>
+        <v>1.050704008485521</v>
       </c>
       <c r="M17">
-        <v>1.010180447705668</v>
+        <v>1.05561969907533</v>
       </c>
       <c r="N17">
-        <v>1.02404148817314</v>
+        <v>1.036115474042074</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9959517860312224</v>
+        <v>1.028603436014863</v>
       </c>
       <c r="D18">
-        <v>1.015260404143722</v>
+        <v>1.032643338711145</v>
       </c>
       <c r="E18">
-        <v>0.9937802683784512</v>
+        <v>1.047654988043323</v>
       </c>
       <c r="F18">
-        <v>0.9975183847933049</v>
+        <v>1.052601248854115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043704258551124</v>
+        <v>1.035711598414898</v>
       </c>
       <c r="J18">
-        <v>1.023168607230357</v>
+        <v>1.034755524268265</v>
       </c>
       <c r="K18">
-        <v>1.028820821534619</v>
+        <v>1.035978857741595</v>
       </c>
       <c r="L18">
-        <v>1.007707233162477</v>
+        <v>1.050939331408633</v>
       </c>
       <c r="M18">
-        <v>1.011380092080277</v>
+        <v>1.055869081101071</v>
       </c>
       <c r="N18">
-        <v>1.024621624011704</v>
+        <v>1.036224995800843</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9962970680461639</v>
+        <v>1.028668313569663</v>
       </c>
       <c r="D19">
-        <v>1.015506417668005</v>
+        <v>1.032690759247478</v>
       </c>
       <c r="E19">
-        <v>0.9942362519342716</v>
+        <v>1.0477496738575</v>
       </c>
       <c r="F19">
-        <v>0.9979987725131173</v>
+        <v>1.052700665239537</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043818482532764</v>
+        <v>1.035727414296114</v>
       </c>
       <c r="J19">
-        <v>1.023365251223283</v>
+        <v>1.034792802429954</v>
       </c>
       <c r="K19">
-        <v>1.028999614911774</v>
+        <v>1.036011755940169</v>
       </c>
       <c r="L19">
-        <v>1.008090140317231</v>
+        <v>1.051019575842706</v>
       </c>
       <c r="M19">
-        <v>1.011787409948171</v>
+        <v>1.055954119008388</v>
       </c>
       <c r="N19">
-        <v>1.024818547261655</v>
+        <v>1.036262326901798</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9947473969620704</v>
+        <v>1.028378166783812</v>
       </c>
       <c r="D20">
-        <v>1.014402508917858</v>
+        <v>1.032478677732136</v>
       </c>
       <c r="E20">
-        <v>0.9921896846698203</v>
+        <v>1.047326282258292</v>
       </c>
       <c r="F20">
-        <v>0.995842605639959</v>
+        <v>1.052256115152236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043304953251194</v>
+        <v>1.03565657021899</v>
       </c>
       <c r="J20">
-        <v>1.022482310083709</v>
+        <v>1.03462603453591</v>
       </c>
       <c r="K20">
-        <v>1.028196748460197</v>
+        <v>1.035864566172892</v>
       </c>
       <c r="L20">
-        <v>1.006371273548525</v>
+        <v>1.050660725158321</v>
       </c>
       <c r="M20">
-        <v>1.009958953867068</v>
+        <v>1.055573829531685</v>
       </c>
       <c r="N20">
-        <v>1.023934352244388</v>
+        <v>1.036095322178216</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9896099661752089</v>
+        <v>1.027434891150264</v>
       </c>
       <c r="D21">
-        <v>1.010747251220644</v>
+        <v>1.031789085051812</v>
       </c>
       <c r="E21">
-        <v>0.9854029963232485</v>
+        <v>1.045950942329247</v>
       </c>
       <c r="F21">
-        <v>0.9886912762675887</v>
+        <v>1.05081194719229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041587103534657</v>
+        <v>1.035424289663273</v>
       </c>
       <c r="J21">
-        <v>1.01954860632379</v>
+        <v>1.034082960225192</v>
       </c>
       <c r="K21">
-        <v>1.025527834683937</v>
+        <v>1.03538496534541</v>
       </c>
       <c r="L21">
-        <v>1.000666292861525</v>
+        <v>1.049494436432957</v>
       </c>
       <c r="M21">
-        <v>1.003890110609681</v>
+        <v>1.054337819479742</v>
       </c>
       <c r="N21">
-        <v>1.02099648228863</v>
+        <v>1.035551476639686</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9863000043869213</v>
+        <v>1.026841836011818</v>
       </c>
       <c r="D22">
-        <v>1.008395948783872</v>
+        <v>1.031355444252566</v>
       </c>
       <c r="E22">
-        <v>0.9810276241144043</v>
+        <v>1.045087084467782</v>
       </c>
       <c r="F22">
-        <v>0.9840799107272683</v>
+        <v>1.04990478389387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040468661890693</v>
+        <v>1.035276746111406</v>
       </c>
       <c r="J22">
-        <v>1.017653507411623</v>
+        <v>1.033740824743607</v>
       </c>
       <c r="K22">
-        <v>1.023802895205257</v>
+        <v>1.035082603044288</v>
       </c>
       <c r="L22">
-        <v>0.9969845353369619</v>
+        <v>1.048761422324495</v>
       </c>
       <c r="M22">
-        <v>0.9999734852121105</v>
+        <v>1.053560952444252</v>
       </c>
       <c r="N22">
-        <v>1.019098692118636</v>
+        <v>1.035208855286473</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9880624982992534</v>
+        <v>1.027156223594275</v>
       </c>
       <c r="D23">
-        <v>1.009647602240696</v>
+        <v>1.031585331333814</v>
       </c>
       <c r="E23">
-        <v>0.9833577829552058</v>
+        <v>1.04554494952862</v>
       </c>
       <c r="F23">
-        <v>0.9865358355609507</v>
+        <v>1.050385608883285</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041065294312555</v>
+        <v>1.035355103717165</v>
       </c>
       <c r="J23">
-        <v>1.018663071619593</v>
+        <v>1.0339222617602</v>
       </c>
       <c r="K23">
-        <v>1.02472188895564</v>
+        <v>1.035242968322193</v>
       </c>
       <c r="L23">
-        <v>0.9989456490442017</v>
+        <v>1.049149980976428</v>
       </c>
       <c r="M23">
-        <v>1.002059703557919</v>
+        <v>1.05397275989391</v>
       </c>
       <c r="N23">
-        <v>1.02010969002358</v>
+        <v>1.035390549964441</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9948322272418698</v>
+        <v>1.028393981192636</v>
       </c>
       <c r="D24">
-        <v>1.01446292225555</v>
+        <v>1.032490237625393</v>
       </c>
       <c r="E24">
-        <v>0.9923017196318357</v>
+        <v>1.047349354904934</v>
       </c>
       <c r="F24">
-        <v>0.9959606448701905</v>
+        <v>1.05228034119347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043333122176783</v>
+        <v>1.035660438977027</v>
       </c>
       <c r="J24">
-        <v>1.022530667891013</v>
+        <v>1.034635127618799</v>
       </c>
       <c r="K24">
-        <v>1.028240725599986</v>
+        <v>1.035872592816968</v>
       </c>
       <c r="L24">
-        <v>1.006465388025207</v>
+        <v>1.050680282932682</v>
       </c>
       <c r="M24">
-        <v>1.010059069397179</v>
+        <v>1.055594555911684</v>
       </c>
       <c r="N24">
-        <v>1.023982778725325</v>
+        <v>1.036104428174326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002364096471392</v>
+        <v>1.029830385347185</v>
       </c>
       <c r="D25">
-        <v>1.01983385022076</v>
+        <v>1.03353999937109</v>
       </c>
       <c r="E25">
-        <v>1.002248729577715</v>
+        <v>1.049447109020472</v>
       </c>
       <c r="F25">
-        <v>1.006438589936179</v>
+        <v>1.054482782172385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045806168434816</v>
+        <v>1.036008217620251</v>
       </c>
       <c r="J25">
-        <v>1.026812160435516</v>
+        <v>1.035459371404121</v>
       </c>
       <c r="K25">
-        <v>1.032131880168873</v>
+        <v>1.036599648174116</v>
       </c>
       <c r="L25">
-        <v>1.014812236927593</v>
+        <v>1.052457358045526</v>
       </c>
       <c r="M25">
-        <v>1.018937770611323</v>
+        <v>1.057477731570414</v>
       </c>
       <c r="N25">
-        <v>1.028270351480335</v>
+        <v>1.036929842480365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030976068851771</v>
+        <v>1.008133703599653</v>
       </c>
       <c r="D2">
-        <v>1.034376972943943</v>
+        <v>1.023956838408279</v>
       </c>
       <c r="E2">
-        <v>1.0511234155851</v>
+        <v>1.009873049732029</v>
       </c>
       <c r="F2">
-        <v>1.056242480241024</v>
+        <v>1.014466703043768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036280307663609</v>
+        <v>1.047659041503114</v>
       </c>
       <c r="J2">
-        <v>1.03611434355409</v>
+        <v>1.030073829088353</v>
       </c>
       <c r="K2">
-        <v>1.037176622660992</v>
+        <v>1.035092208434351</v>
       </c>
       <c r="L2">
-        <v>1.053875790400496</v>
+        <v>1.021196529791217</v>
       </c>
       <c r="M2">
-        <v>1.058980728218371</v>
+        <v>1.025728106713033</v>
       </c>
       <c r="N2">
-        <v>1.037585744765914</v>
+        <v>1.031536652076783</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031807927830352</v>
+        <v>1.012195569355213</v>
       </c>
       <c r="D3">
-        <v>1.034984485751495</v>
+        <v>1.026863546782125</v>
       </c>
       <c r="E3">
-        <v>1.052342410517915</v>
+        <v>1.015246759686989</v>
       </c>
       <c r="F3">
-        <v>1.057521963342256</v>
+        <v>1.020123146859886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036474787651092</v>
+        <v>1.048938723019635</v>
       </c>
       <c r="J3">
-        <v>1.036588482674507</v>
+        <v>1.032359203275735</v>
       </c>
       <c r="K3">
-        <v>1.03759384806658</v>
+        <v>1.037163865045537</v>
       </c>
       <c r="L3">
-        <v>1.054906323094512</v>
+        <v>1.025688202521907</v>
       </c>
       <c r="M3">
-        <v>1.060072625578378</v>
+        <v>1.030504863306202</v>
       </c>
       <c r="N3">
-        <v>1.038060557218266</v>
+        <v>1.033825271757643</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032346186959689</v>
+        <v>1.014768113157568</v>
       </c>
       <c r="D4">
-        <v>1.035377485179999</v>
+        <v>1.02870607057349</v>
       </c>
       <c r="E4">
-        <v>1.053132044903663</v>
+        <v>1.018654003855838</v>
       </c>
       <c r="F4">
-        <v>1.058350709269872</v>
+        <v>1.023708787549594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036599200174632</v>
+        <v>1.049737493966775</v>
       </c>
       <c r="J4">
-        <v>1.036894617177478</v>
+        <v>1.033801447396588</v>
       </c>
       <c r="K4">
-        <v>1.037863025174119</v>
+        <v>1.038469956585429</v>
       </c>
       <c r="L4">
-        <v>1.055573442731532</v>
+        <v>1.02853238619696</v>
       </c>
       <c r="M4">
-        <v>1.060779435026419</v>
+        <v>1.033529247588079</v>
       </c>
       <c r="N4">
-        <v>1.038367126467345</v>
+        <v>1.035269564030574</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032572467857674</v>
+        <v>1.015836706980675</v>
       </c>
       <c r="D5">
-        <v>1.035542676419019</v>
+        <v>1.029471763676429</v>
       </c>
       <c r="E5">
-        <v>1.053464214704023</v>
+        <v>1.020070389201523</v>
       </c>
       <c r="F5">
-        <v>1.058699314770368</v>
+        <v>1.025199120978416</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036651160531115</v>
+        <v>1.050066445533667</v>
       </c>
       <c r="J5">
-        <v>1.037023156099398</v>
+        <v>1.034399269176828</v>
       </c>
       <c r="K5">
-        <v>1.037975995906458</v>
+        <v>1.03901102152649</v>
       </c>
       <c r="L5">
-        <v>1.055853971423884</v>
+        <v>1.029713786930391</v>
       </c>
       <c r="M5">
-        <v>1.06107664512071</v>
+        <v>1.034785416183475</v>
       </c>
       <c r="N5">
-        <v>1.038495847929277</v>
+        <v>1.035868234786314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032610461196336</v>
+        <v>1.016015384408733</v>
       </c>
       <c r="D6">
-        <v>1.03557041120857</v>
+        <v>1.029599812324535</v>
       </c>
       <c r="E6">
-        <v>1.053519999668574</v>
+        <v>1.020307287161952</v>
       </c>
       <c r="F6">
-        <v>1.058757858962843</v>
+        <v>1.025448374699561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036659864793208</v>
+        <v>1.050121280517035</v>
       </c>
       <c r="J6">
-        <v>1.037044728943731</v>
+        <v>1.034499154844768</v>
       </c>
       <c r="K6">
-        <v>1.037994952945477</v>
+        <v>1.03910140487925</v>
       </c>
       <c r="L6">
-        <v>1.055901077645158</v>
+        <v>1.029911328023119</v>
       </c>
       <c r="M6">
-        <v>1.061126551974775</v>
+        <v>1.034995454097801</v>
       </c>
       <c r="N6">
-        <v>1.038517451409524</v>
+        <v>1.035968262303359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032349210550139</v>
+        <v>1.014782441890582</v>
       </c>
       <c r="D7">
-        <v>1.035379692576136</v>
+        <v>1.028716336442953</v>
       </c>
       <c r="E7">
-        <v>1.053136482556346</v>
+        <v>1.018672991696731</v>
       </c>
       <c r="F7">
-        <v>1.05835536656388</v>
+        <v>1.023728767562463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036599895818607</v>
+        <v>1.049741916156356</v>
       </c>
       <c r="J7">
-        <v>1.036896335350596</v>
+        <v>1.033809468586523</v>
       </c>
       <c r="K7">
-        <v>1.037864535447416</v>
+        <v>1.038477217533282</v>
       </c>
       <c r="L7">
-        <v>1.055577190887415</v>
+        <v>1.028548227523036</v>
       </c>
       <c r="M7">
-        <v>1.060783406096582</v>
+        <v>1.03354609180727</v>
       </c>
       <c r="N7">
-        <v>1.038368847080466</v>
+        <v>1.035277596611519</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031257200789263</v>
+        <v>1.009518249409866</v>
       </c>
       <c r="D8">
-        <v>1.034582305073859</v>
+        <v>1.024947272256935</v>
       </c>
       <c r="E8">
-        <v>1.051535202426765</v>
+        <v>1.011704038356903</v>
       </c>
       <c r="F8">
-        <v>1.056674715208688</v>
+        <v>1.0163942099224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036346328643361</v>
+        <v>1.048097672281091</v>
       </c>
       <c r="J8">
-        <v>1.036274718364392</v>
+        <v>1.030853904746736</v>
       </c>
       <c r="K8">
-        <v>1.037317790171353</v>
+        <v>1.035799596247689</v>
       </c>
       <c r="L8">
-        <v>1.0542240028746</v>
+        <v>1.022727770965963</v>
       </c>
       <c r="M8">
-        <v>1.059349682694803</v>
+        <v>1.027356597553418</v>
       </c>
       <c r="N8">
-        <v>1.03774634732684</v>
+        <v>1.032317835532071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029332914146692</v>
+        <v>0.9997938754039268</v>
       </c>
       <c r="D9">
-        <v>1.033176482754423</v>
+        <v>1.017999527808354</v>
       </c>
       <c r="E9">
-        <v>1.048720114238958</v>
+        <v>0.9988541112319449</v>
       </c>
       <c r="F9">
-        <v>1.053719547881194</v>
+        <v>1.002863274652447</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035888590563603</v>
+        <v>1.044968716233935</v>
       </c>
       <c r="J9">
-        <v>1.035174288829753</v>
+        <v>1.025353914562154</v>
       </c>
       <c r="K9">
-        <v>1.036348298802715</v>
+        <v>1.030807172556067</v>
       </c>
       <c r="L9">
-        <v>1.051841748162252</v>
+        <v>1.0119658070804</v>
       </c>
       <c r="M9">
-        <v>1.056825385407449</v>
+        <v>1.015910067410642</v>
       </c>
       <c r="N9">
-        <v>1.036644355056041</v>
+        <v>1.02681003473057</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028050098020781</v>
+        <v>0.9929780080347405</v>
       </c>
       <c r="D10">
-        <v>1.032238857854666</v>
+        <v>1.013142824534806</v>
       </c>
       <c r="E10">
-        <v>1.046847751065781</v>
+        <v>0.9898527012132438</v>
       </c>
       <c r="F10">
-        <v>1.051753652873573</v>
+        <v>0.9933802612354508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035576121840603</v>
+        <v>1.042715914444331</v>
       </c>
       <c r="J10">
-        <v>1.034437310868449</v>
+        <v>1.021473024007411</v>
       </c>
       <c r="K10">
-        <v>1.035697948590033</v>
+        <v>1.027278767750657</v>
       </c>
       <c r="L10">
-        <v>1.050255034417607</v>
+        <v>1.004407617548914</v>
       </c>
       <c r="M10">
-        <v>1.055143893895154</v>
+        <v>1.007870074653955</v>
       </c>
       <c r="N10">
-        <v>1.0359063305015</v>
+        <v>1.022923632866095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027494646306712</v>
+        <v>0.9899400026776226</v>
       </c>
       <c r="D11">
-        <v>1.031832774544587</v>
+        <v>1.01098186246149</v>
       </c>
       <c r="E11">
-        <v>1.046038018573909</v>
+        <v>0.9858391188601763</v>
       </c>
       <c r="F11">
-        <v>1.050903385451417</v>
+        <v>0.9891508840150449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035439092166161</v>
+        <v>1.041698139958283</v>
       </c>
       <c r="J11">
-        <v>1.034117403765293</v>
+        <v>1.019737361649013</v>
       </c>
       <c r="K11">
-        <v>1.035415395759557</v>
+        <v>1.02569960660285</v>
       </c>
       <c r="L11">
-        <v>1.049568304112455</v>
+        <v>1.001033122671722</v>
       </c>
       <c r="M11">
-        <v>1.054416104944518</v>
+        <v>1.004280340598396</v>
       </c>
       <c r="N11">
-        <v>1.035585969093564</v>
+        <v>1.021185505668065</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027288330134949</v>
+        <v>0.9887978176166591</v>
       </c>
       <c r="D12">
-        <v>1.031681925520368</v>
+        <v>1.010170048134147</v>
       </c>
       <c r="E12">
-        <v>1.045737398856311</v>
+        <v>0.984329689970536</v>
       </c>
       <c r="F12">
-        <v>1.050587703981445</v>
+        <v>0.9875601426497747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035387934020217</v>
+        <v>1.041313486813054</v>
       </c>
       <c r="J12">
-        <v>1.033998457896956</v>
+        <v>1.01908395873992</v>
       </c>
       <c r="K12">
-        <v>1.035310301569679</v>
+        <v>1.025104965798181</v>
       </c>
       <c r="L12">
-        <v>1.049313270021594</v>
+        <v>0.9997633948611131</v>
       </c>
       <c r="M12">
-        <v>1.054145817011622</v>
+        <v>1.002929615427404</v>
       </c>
       <c r="N12">
-        <v>1.03546685430845</v>
+        <v>1.020531174851895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027332585489154</v>
+        <v>0.9890434536934409</v>
       </c>
       <c r="D13">
-        <v>1.031714283653145</v>
+        <v>1.01034460570775</v>
       </c>
       <c r="E13">
-        <v>1.045801875993545</v>
+        <v>0.9846543297642156</v>
       </c>
       <c r="F13">
-        <v>1.050655412154559</v>
+        <v>0.987902277712229</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035398919338783</v>
+        <v>1.04139629942312</v>
       </c>
       <c r="J13">
-        <v>1.034023977524063</v>
+        <v>1.019224516455263</v>
       </c>
       <c r="K13">
-        <v>1.035332851020416</v>
+        <v>1.025232889481163</v>
       </c>
       <c r="L13">
-        <v>1.049367973538877</v>
+        <v>1.00003650998514</v>
       </c>
       <c r="M13">
-        <v>1.054203792657059</v>
+        <v>1.003220153096783</v>
       </c>
       <c r="N13">
-        <v>1.035492410176355</v>
+        <v>1.020671932175316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027477592074523</v>
+        <v>0.9898458737792627</v>
       </c>
       <c r="D14">
-        <v>1.031820305546659</v>
+        <v>1.010914946598069</v>
       </c>
       <c r="E14">
-        <v>1.046013166181335</v>
+        <v>0.9857147357903872</v>
       </c>
       <c r="F14">
-        <v>1.050877288157359</v>
+        <v>0.9890198036291368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035434868703125</v>
+        <v>1.041666480700618</v>
       </c>
       <c r="J14">
-        <v>1.034107574068529</v>
+        <v>1.019683531105253</v>
       </c>
       <c r="K14">
-        <v>1.035406711522892</v>
+        <v>1.025650620193317</v>
       </c>
       <c r="L14">
-        <v>1.049547221939283</v>
+        <v>1.000928504988953</v>
       </c>
       <c r="M14">
-        <v>1.054393761941459</v>
+        <v>1.004169049354002</v>
       </c>
       <c r="N14">
-        <v>1.035576125437503</v>
+        <v>1.021131598678758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027566935885333</v>
+        <v>0.9903384291746767</v>
       </c>
       <c r="D15">
-        <v>1.031885627634315</v>
+        <v>1.011265128457488</v>
       </c>
       <c r="E15">
-        <v>1.046143369009643</v>
+        <v>0.9863655841853799</v>
       </c>
       <c r="F15">
-        <v>1.051014012556402</v>
+        <v>0.989705690129022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035456983957894</v>
+        <v>1.041832065040937</v>
       </c>
       <c r="J15">
-        <v>1.034159065026015</v>
+        <v>1.019965179610182</v>
       </c>
       <c r="K15">
-        <v>1.035452200690698</v>
+        <v>1.025906917385378</v>
       </c>
       <c r="L15">
-        <v>1.04965766914023</v>
+        <v>1.001475902513264</v>
       </c>
       <c r="M15">
-        <v>1.054510814259223</v>
+        <v>1.004751365066542</v>
       </c>
       <c r="N15">
-        <v>1.035627689518054</v>
+        <v>1.02141364715687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028086961938688</v>
+        <v>0.9931777445259485</v>
       </c>
       <c r="D16">
-        <v>1.032265806571098</v>
+        <v>1.013284983253895</v>
       </c>
       <c r="E16">
-        <v>1.046901511584917</v>
+        <v>0.9901165278820208</v>
       </c>
       <c r="F16">
-        <v>1.051810102823513</v>
+        <v>0.9936582510579692</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035585179669636</v>
+        <v>1.042782548578094</v>
       </c>
       <c r="J16">
-        <v>1.034458525446496</v>
+        <v>1.021587017016078</v>
       </c>
       <c r="K16">
-        <v>1.035716680806816</v>
+        <v>1.027382459955832</v>
       </c>
       <c r="L16">
-        <v>1.050300617251513</v>
+        <v>1.004629344145958</v>
       </c>
       <c r="M16">
-        <v>1.05519220125564</v>
+        <v>1.008105942069601</v>
       </c>
       <c r="N16">
-        <v>1.035927575206681</v>
+        <v>1.02303778775791</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028413165500138</v>
+        <v>0.9949350772421124</v>
       </c>
       <c r="D17">
-        <v>1.032504260756226</v>
+        <v>1.014536171074748</v>
       </c>
       <c r="E17">
-        <v>1.047377344766059</v>
+        <v>0.992437552387729</v>
       </c>
       <c r="F17">
-        <v>1.052309730202687</v>
+        <v>0.9961037565967332</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035665130986969</v>
+        <v>1.043367265865301</v>
       </c>
       <c r="J17">
-        <v>1.034646157822393</v>
+        <v>1.022589294082911</v>
       </c>
       <c r="K17">
-        <v>1.035882329231474</v>
+        <v>1.028294040172555</v>
       </c>
       <c r="L17">
-        <v>1.050704008485521</v>
+        <v>1.006579490847249</v>
       </c>
       <c r="M17">
-        <v>1.05561969907533</v>
+        <v>1.010180447705668</v>
       </c>
       <c r="N17">
-        <v>1.036115474042074</v>
+        <v>1.02404148817314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028603436014863</v>
+        <v>0.9959517860312224</v>
       </c>
       <c r="D18">
-        <v>1.032643338711145</v>
+        <v>1.015260404143722</v>
       </c>
       <c r="E18">
-        <v>1.047654988043323</v>
+        <v>0.9937802683784511</v>
       </c>
       <c r="F18">
-        <v>1.052601248854115</v>
+        <v>0.9975183847933048</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035711598414898</v>
+        <v>1.043704258551124</v>
       </c>
       <c r="J18">
-        <v>1.034755524268265</v>
+        <v>1.023168607230357</v>
       </c>
       <c r="K18">
-        <v>1.035978857741595</v>
+        <v>1.028820821534619</v>
       </c>
       <c r="L18">
-        <v>1.050939331408633</v>
+        <v>1.007707233162477</v>
       </c>
       <c r="M18">
-        <v>1.055869081101071</v>
+        <v>1.011380092080277</v>
       </c>
       <c r="N18">
-        <v>1.036224995800843</v>
+        <v>1.024621624011704</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028668313569663</v>
+        <v>0.9962970680461648</v>
       </c>
       <c r="D19">
-        <v>1.032690759247478</v>
+        <v>1.015506417668006</v>
       </c>
       <c r="E19">
-        <v>1.0477496738575</v>
+        <v>0.9942362519342736</v>
       </c>
       <c r="F19">
-        <v>1.052700665239537</v>
+        <v>0.9979987725131192</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035727414296114</v>
+        <v>1.043818482532765</v>
       </c>
       <c r="J19">
-        <v>1.034792802429954</v>
+        <v>1.023365251223284</v>
       </c>
       <c r="K19">
-        <v>1.036011755940169</v>
+        <v>1.028999614911775</v>
       </c>
       <c r="L19">
-        <v>1.051019575842706</v>
+        <v>1.008090140317233</v>
       </c>
       <c r="M19">
-        <v>1.055954119008388</v>
+        <v>1.011787409948173</v>
       </c>
       <c r="N19">
-        <v>1.036262326901798</v>
+        <v>1.024818547261655</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028378166783812</v>
+        <v>0.9947473969620702</v>
       </c>
       <c r="D20">
-        <v>1.032478677732136</v>
+        <v>1.014402508917857</v>
       </c>
       <c r="E20">
-        <v>1.047326282258292</v>
+        <v>0.9921896846698206</v>
       </c>
       <c r="F20">
-        <v>1.052256115152236</v>
+        <v>0.995842605639959</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03565657021899</v>
+        <v>1.043304953251194</v>
       </c>
       <c r="J20">
-        <v>1.03462603453591</v>
+        <v>1.022482310083708</v>
       </c>
       <c r="K20">
-        <v>1.035864566172892</v>
+        <v>1.028196748460197</v>
       </c>
       <c r="L20">
-        <v>1.050660725158321</v>
+        <v>1.006371273548526</v>
       </c>
       <c r="M20">
-        <v>1.055573829531685</v>
+        <v>1.009958953867068</v>
       </c>
       <c r="N20">
-        <v>1.036095322178216</v>
+        <v>1.023934352244388</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027434891150264</v>
+        <v>0.9896099661752089</v>
       </c>
       <c r="D21">
-        <v>1.031789085051812</v>
+        <v>1.010747251220644</v>
       </c>
       <c r="E21">
-        <v>1.045950942329247</v>
+        <v>0.9854029963232486</v>
       </c>
       <c r="F21">
-        <v>1.05081194719229</v>
+        <v>0.988691276267589</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035424289663273</v>
+        <v>1.041587103534658</v>
       </c>
       <c r="J21">
-        <v>1.034082960225192</v>
+        <v>1.01954860632379</v>
       </c>
       <c r="K21">
-        <v>1.03538496534541</v>
+        <v>1.025527834683937</v>
       </c>
       <c r="L21">
-        <v>1.049494436432957</v>
+        <v>1.000666292861525</v>
       </c>
       <c r="M21">
-        <v>1.054337819479742</v>
+        <v>1.003890110609681</v>
       </c>
       <c r="N21">
-        <v>1.035551476639686</v>
+        <v>1.02099648228863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026841836011818</v>
+        <v>0.9863000043869207</v>
       </c>
       <c r="D22">
-        <v>1.031355444252566</v>
+        <v>1.008395948783872</v>
       </c>
       <c r="E22">
-        <v>1.045087084467782</v>
+        <v>0.9810276241144038</v>
       </c>
       <c r="F22">
-        <v>1.04990478389387</v>
+        <v>0.9840799107272677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035276746111406</v>
+        <v>1.040468661890692</v>
       </c>
       <c r="J22">
-        <v>1.033740824743607</v>
+        <v>1.017653507411623</v>
       </c>
       <c r="K22">
-        <v>1.035082603044288</v>
+        <v>1.023802895205257</v>
       </c>
       <c r="L22">
-        <v>1.048761422324495</v>
+        <v>0.9969845353369613</v>
       </c>
       <c r="M22">
-        <v>1.053560952444252</v>
+        <v>0.9999734852121102</v>
       </c>
       <c r="N22">
-        <v>1.035208855286473</v>
+        <v>1.019098692118636</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027156223594275</v>
+        <v>0.9880624982992535</v>
       </c>
       <c r="D23">
-        <v>1.031585331333814</v>
+        <v>1.009647602240696</v>
       </c>
       <c r="E23">
-        <v>1.04554494952862</v>
+        <v>0.9833577829552061</v>
       </c>
       <c r="F23">
-        <v>1.050385608883285</v>
+        <v>0.9865358355609511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035355103717165</v>
+        <v>1.041065294312555</v>
       </c>
       <c r="J23">
-        <v>1.0339222617602</v>
+        <v>1.018663071619593</v>
       </c>
       <c r="K23">
-        <v>1.035242968322193</v>
+        <v>1.02472188895564</v>
       </c>
       <c r="L23">
-        <v>1.049149980976428</v>
+        <v>0.9989456490442019</v>
       </c>
       <c r="M23">
-        <v>1.05397275989391</v>
+        <v>1.00205970355792</v>
       </c>
       <c r="N23">
-        <v>1.035390549964441</v>
+        <v>1.02010969002358</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028393981192636</v>
+        <v>0.9948322272418693</v>
       </c>
       <c r="D24">
-        <v>1.032490237625393</v>
+        <v>1.01446292225555</v>
       </c>
       <c r="E24">
-        <v>1.047349354904934</v>
+        <v>0.992301719631835</v>
       </c>
       <c r="F24">
-        <v>1.05228034119347</v>
+        <v>0.9959606448701899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035660438977027</v>
+        <v>1.043333122176782</v>
       </c>
       <c r="J24">
-        <v>1.034635127618799</v>
+        <v>1.022530667891013</v>
       </c>
       <c r="K24">
-        <v>1.035872592816968</v>
+        <v>1.028240725599985</v>
       </c>
       <c r="L24">
-        <v>1.050680282932682</v>
+        <v>1.006465388025206</v>
       </c>
       <c r="M24">
-        <v>1.055594555911684</v>
+        <v>1.010059069397178</v>
       </c>
       <c r="N24">
-        <v>1.036104428174326</v>
+        <v>1.023982778725325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029830385347185</v>
+        <v>1.002364096471393</v>
       </c>
       <c r="D25">
-        <v>1.03353999937109</v>
+        <v>1.01983385022076</v>
       </c>
       <c r="E25">
-        <v>1.049447109020472</v>
+        <v>1.002248729577716</v>
       </c>
       <c r="F25">
-        <v>1.054482782172385</v>
+        <v>1.006438589936181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036008217620251</v>
+        <v>1.045806168434816</v>
       </c>
       <c r="J25">
-        <v>1.035459371404121</v>
+        <v>1.026812160435516</v>
       </c>
       <c r="K25">
-        <v>1.036599648174116</v>
+        <v>1.032131880168873</v>
       </c>
       <c r="L25">
-        <v>1.052457358045526</v>
+        <v>1.014812236927594</v>
       </c>
       <c r="M25">
-        <v>1.057477731570414</v>
+        <v>1.018937770611323</v>
       </c>
       <c r="N25">
-        <v>1.036929842480365</v>
+        <v>1.028270351480335</v>
       </c>
     </row>
   </sheetData>
